--- a/MainProject/src/main/res/test_summaries.xlsx
+++ b/MainProject/src/main/res/test_summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llf1362\Desktop\BatteryRobot\MainProject\src\main\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36639613-853C-473D-8502-485284A95239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A16CA04-5B61-424D-89F1-358D300F7E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{623F5A22-9E79-46C5-A47D-4D868A400089}"/>
+    <workbookView xWindow="1605" yWindow="1305" windowWidth="25680" windowHeight="13905" xr2:uid="{623F5A22-9E79-46C5-A47D-4D868A400089}"/>
   </bookViews>
   <sheets>
     <sheet name="test_summaries" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="372">
   <si>
     <t>test name</t>
   </si>
@@ -969,6 +969,186 @@
   </si>
   <si>
     <t>consecutiveTests_TripleSlow_1413_3_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_35speed_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_35speed_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_35speed_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_1_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_1_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_1_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_2_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_2_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_2_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_3_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_3_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_35speed_3_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_1_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_1_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_1_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_2_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_2_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_2_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_3_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_3_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3purge_7pump_22speed_3_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_1_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_1_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_1_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_2_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_2_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_2_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_3_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_3_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_2purge_7pump_22speed_3_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_1_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_1_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_1_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_2_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_2_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_2_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_3_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_3_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_22speed_3_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_1_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_1_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_1_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_2_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_2_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_2_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_3_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_3_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_4purge_7pump_17speed_3_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_1_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_1_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_1_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_2_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_2_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_2_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_3_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_3_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_3purge_7pump_22speed_3_3</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_4purge_7pump_22speed_1_1</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_4purge_7pump_22speed_1_2</t>
+  </si>
+  <si>
+    <t>consecutiveTests_3cell_4purge_7pump_22speed_1_3</t>
   </si>
 </sst>
 </file>
@@ -1900,6 +2080,1344 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13533359531042555"/>
+          <c:y val="6.6705395149257551E-2"/>
+          <c:w val="0.82028182231411018"/>
+          <c:h val="0.76903825062213049"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2p 22s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_summaries!$C$434:$C$442</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3966.744140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3878.54272460937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4113.62158203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4139.42333984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4180.1572265625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4289.55615234375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4199.421875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4251.08837890625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4246.89208984375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-01BB-4889-9BDD-7E2D6E9EC307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2p 35s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_summaries!$C$407:$C$415</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4247.048828125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4115.29443359375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4239.3134765625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4203.09521484375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4247.181640625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4246.66455078125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4142.68017578125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4250.990234375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4198.1201171875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01BB-4889-9BDD-7E2D6E9EC307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3p 35s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_summaries!$C$416:$C$424</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4204.46923828125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4261.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4241.42822265625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4359.19970703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4267.08154296875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4326.84619140625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4295.59375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4358.67578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4284.79541015625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01BB-4889-9BDD-7E2D6E9EC307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5p 22s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_summaries!$C$443:$C$451</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4220.10986328125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4224.96875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4192.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4221.22705078125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4259.7041015625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4230.60791015625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4264.099609375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4245.67138671875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4245.73095703125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-01BB-4889-9BDD-7E2D6E9EC307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="783643295"/>
+        <c:axId val="783626975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="783643295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample # since Viscous</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42799838662699191"/>
+              <c:y val="0.87411951653055442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783626975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="783626975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Resistance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783643295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27011793916821852"/>
+          <c:y val="0.92363067008554767"/>
+          <c:w val="0.54343533108587194"/>
+          <c:h val="5.1899254072648553E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 = 2p 35s               2 = 3p 35s              3 = 3p 22s                    4 = 4p 22s                      5 = 4p 17s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(test_summaries!$F$410,test_summaries!$F$419,test_summaries!$F$428,test_summaries!$F$446,test_summaries!$F$455)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>47.526311427418669</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>49.375891161455002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>62.012519353401117</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.01773840822235</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36.727240473886049</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(test_summaries!$F$410,test_summaries!$F$419,test_summaries!$F$428,test_summaries!$F$446,test_summaries!$F$455)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>47.526311427418669</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>49.375891161455002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>62.012519353401117</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.01773840822235</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36.727240473886049</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(test_summaries!$F$407,test_summaries!$F$416,test_summaries!$F$425,test_summaries!$F$443,test_summaries!$F$452)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4210.0431857638887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4288.8016493055557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4251.4808485243057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4233.8952365451387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4138.553955078125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A020-4FC8-BCFB-56CD14001C13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135581103"/>
+        <c:axId val="2135582063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135581103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135582063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135582063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Resistance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135581103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="40"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_summaries!$C$452:$C$460</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4200.2080078125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4085.52099609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4133.40771484375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4130.7314453125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4136.39404296875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4170.38916015625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4080.38500976562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4170.74755859375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4139.20166015625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2BC-40A0-B291-4EF7BDE44FBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2087619871"/>
+        <c:axId val="2087620351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2087619871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087620351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2087620351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087619871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5317,6 +6835,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="92722464"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5372,6 +6891,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5651,6 +7210,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6167,7 +7806,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6683,7 +8322,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7199,7 +8838,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7715,7 +9354,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8231,7 +9870,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8747,7 +10386,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9589,6 +12776,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294379</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>180644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581357</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>180644</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6992371-0428-9118-604D-42C45D7B4E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>756979</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>100731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>148951</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>86705</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBEA46D-CFF4-E1D4-2836-05CFCD0CEE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>792201</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9292</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>12546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7431E84-96D4-CF1E-106E-87DECAA576F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9909,10 +13204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5AECD7-F9FA-48A9-9F66-6C458FA6A2BA}">
-  <dimension ref="A1:J406"/>
+  <dimension ref="A1:J499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309:C309"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I493" sqref="I493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16296,7 +19591,7 @@
         <v>1.8041411968200553E-3</v>
       </c>
       <c r="H314" s="1">
-        <f t="shared" ref="H314:H340" si="14">(G314-E314)/E314</f>
+        <f t="shared" ref="H314:H331" si="14">(G314-E314)/E314</f>
         <v>0.23486734895280983</v>
       </c>
       <c r="I314" s="3">
@@ -16855,11 +20150,11 @@
         <v>1.0014609999999999</v>
       </c>
       <c r="F332" s="2">
-        <f t="shared" ref="F332:F340" si="15">C332*E332</f>
+        <f t="shared" ref="F332" si="15">C332*E332</f>
         <v>4335.3246689999996</v>
       </c>
       <c r="G332">
-        <f t="shared" ref="G332:G340" si="16">$J$256*1/C332</f>
+        <f t="shared" ref="G332" si="16">$J$256*1/C332</f>
         <v>1.5238737199351079E-3</v>
       </c>
       <c r="H332" s="1"/>
@@ -18024,7 +21319,7 @@
         <v>45604.466666666667</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>306</v>
       </c>
@@ -18041,7 +21336,7 @@
         <v>45604.473611111112</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>307</v>
       </c>
@@ -18057,8 +21352,11 @@
       <c r="E402" s="3">
         <v>45604.480555555558</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>308</v>
       </c>
@@ -18075,7 +21373,7 @@
         <v>45604.487500000003</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>309</v>
       </c>
@@ -18092,7 +21390,7 @@
         <v>45604.494444444441</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>310</v>
       </c>
@@ -18100,7 +21398,7 @@
         <v>45604.501388888886</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>311</v>
       </c>
@@ -18115,6 +21413,1683 @@
       </c>
       <c r="E406" s="3">
         <v>45604.509976851848</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>312</v>
+      </c>
+      <c r="B407">
+        <v>4220</v>
+      </c>
+      <c r="C407">
+        <v>4247.048828125</v>
+      </c>
+      <c r="D407">
+        <v>23.06</v>
+      </c>
+      <c r="E407" s="3">
+        <v>45606.744270833333</v>
+      </c>
+      <c r="F407">
+        <f>AVERAGE(C407:C415)</f>
+        <v>4210.0431857638887</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>313</v>
+      </c>
+      <c r="B408">
+        <v>4168</v>
+      </c>
+      <c r="C408">
+        <v>4115.29443359375</v>
+      </c>
+      <c r="D408">
+        <v>22.93</v>
+      </c>
+      <c r="E408" s="3">
+        <v>45606.751307870371</v>
+      </c>
+      <c r="F408">
+        <f>MAX(C407:C415)</f>
+        <v>4250.990234375</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>314</v>
+      </c>
+      <c r="B409">
+        <v>4230</v>
+      </c>
+      <c r="C409">
+        <v>4239.3134765625</v>
+      </c>
+      <c r="D409">
+        <v>22.87</v>
+      </c>
+      <c r="E409" s="3">
+        <v>45606.758344907408</v>
+      </c>
+      <c r="F409">
+        <f>MIN(C407:C415)</f>
+        <v>4115.29443359375</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>312</v>
+      </c>
+      <c r="B410">
+        <v>4196</v>
+      </c>
+      <c r="C410">
+        <v>4203.09521484375</v>
+      </c>
+      <c r="D410">
+        <v>22.93</v>
+      </c>
+      <c r="E410" s="3">
+        <v>45606.765393518515</v>
+      </c>
+      <c r="F410">
+        <f>_xlfn.STDEV.P(C407:C415)</f>
+        <v>47.526311427418669</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>313</v>
+      </c>
+      <c r="B411">
+        <v>4218</v>
+      </c>
+      <c r="C411">
+        <v>4247.181640625</v>
+      </c>
+      <c r="D411">
+        <v>22.87</v>
+      </c>
+      <c r="E411" s="3">
+        <v>45606.772465277776</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>314</v>
+      </c>
+      <c r="B412">
+        <v>4236</v>
+      </c>
+      <c r="C412">
+        <v>4246.66455078125</v>
+      </c>
+      <c r="D412">
+        <v>22.93</v>
+      </c>
+      <c r="E412" s="3">
+        <v>45606.77952546296</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>312</v>
+      </c>
+      <c r="B413">
+        <v>4180</v>
+      </c>
+      <c r="C413">
+        <v>4142.68017578125</v>
+      </c>
+      <c r="D413">
+        <v>22.93</v>
+      </c>
+      <c r="E413" s="3">
+        <v>45606.786585648151</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>313</v>
+      </c>
+      <c r="B414">
+        <v>4240</v>
+      </c>
+      <c r="C414">
+        <v>4250.990234375</v>
+      </c>
+      <c r="D414">
+        <v>22.93</v>
+      </c>
+      <c r="E414" s="3">
+        <v>45606.794641203705</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>314</v>
+      </c>
+      <c r="B415">
+        <v>4386</v>
+      </c>
+      <c r="C415">
+        <v>4198.1201171875</v>
+      </c>
+      <c r="D415">
+        <v>22.93</v>
+      </c>
+      <c r="E415" s="3">
+        <v>45606.801689814813</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>315</v>
+      </c>
+      <c r="B416">
+        <v>4285</v>
+      </c>
+      <c r="C416">
+        <v>4204.46923828125</v>
+      </c>
+      <c r="D416">
+        <v>23</v>
+      </c>
+      <c r="E416" s="3">
+        <v>45606.899861111109</v>
+      </c>
+      <c r="F416">
+        <f>AVERAGE(C416:C424)</f>
+        <v>4288.8016493055557</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>316</v>
+      </c>
+      <c r="B417">
+        <v>4211</v>
+      </c>
+      <c r="C417">
+        <v>4261.125</v>
+      </c>
+      <c r="D417">
+        <v>23.12</v>
+      </c>
+      <c r="E417" s="3">
+        <v>45606.906921296293</v>
+      </c>
+      <c r="F417">
+        <f>MAX(C416:C424)</f>
+        <v>4359.19970703125</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>317</v>
+      </c>
+      <c r="B418">
+        <v>4189</v>
+      </c>
+      <c r="C418">
+        <v>4241.42822265625</v>
+      </c>
+      <c r="D418">
+        <v>23</v>
+      </c>
+      <c r="E418" s="3">
+        <v>45606.913958333331</v>
+      </c>
+      <c r="F418">
+        <f>MIN(C416:C424)</f>
+        <v>4204.46923828125</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>318</v>
+      </c>
+      <c r="B419">
+        <v>4212</v>
+      </c>
+      <c r="C419">
+        <v>4359.19970703125</v>
+      </c>
+      <c r="D419">
+        <v>22.93</v>
+      </c>
+      <c r="E419" s="3">
+        <v>45606.920995370368</v>
+      </c>
+      <c r="F419">
+        <f>_xlfn.STDEV.P(C416:C424)</f>
+        <v>49.375891161455002</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>319</v>
+      </c>
+      <c r="B420">
+        <v>4223</v>
+      </c>
+      <c r="C420">
+        <v>4267.08154296875</v>
+      </c>
+      <c r="D420">
+        <v>22.93</v>
+      </c>
+      <c r="E420" s="3">
+        <v>45606.928055555552</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>320</v>
+      </c>
+      <c r="B421">
+        <v>4247</v>
+      </c>
+      <c r="C421">
+        <v>4326.84619140625</v>
+      </c>
+      <c r="D421">
+        <v>22.81</v>
+      </c>
+      <c r="E421" s="3">
+        <v>45606.935127314813</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>321</v>
+      </c>
+      <c r="B422">
+        <v>4254</v>
+      </c>
+      <c r="C422">
+        <v>4295.59375</v>
+      </c>
+      <c r="D422">
+        <v>22.81</v>
+      </c>
+      <c r="E422" s="3">
+        <v>45606.942210648151</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>322</v>
+      </c>
+      <c r="B423">
+        <v>4221</v>
+      </c>
+      <c r="C423">
+        <v>4358.67578125</v>
+      </c>
+      <c r="D423">
+        <v>22.93</v>
+      </c>
+      <c r="E423" s="3">
+        <v>45606.949259259258</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>323</v>
+      </c>
+      <c r="B424">
+        <v>4305</v>
+      </c>
+      <c r="C424">
+        <v>4284.79541015625</v>
+      </c>
+      <c r="D424">
+        <v>22.87</v>
+      </c>
+      <c r="E424" s="3">
+        <v>45606.956342592595</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>324</v>
+      </c>
+      <c r="B425">
+        <v>4185</v>
+      </c>
+      <c r="C425">
+        <v>4184.83056640625</v>
+      </c>
+      <c r="D425">
+        <v>22.37</v>
+      </c>
+      <c r="E425" s="3">
+        <v>45607.6637962963</v>
+      </c>
+      <c r="F425">
+        <f>AVERAGE(C425:C433)</f>
+        <v>4251.4808485243057</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>325</v>
+      </c>
+      <c r="B426">
+        <v>4093</v>
+      </c>
+      <c r="C426">
+        <v>4164.271484375</v>
+      </c>
+      <c r="D426">
+        <v>22.25</v>
+      </c>
+      <c r="E426" s="3">
+        <v>45607.67082175926</v>
+      </c>
+      <c r="F426">
+        <f>MAX(C425:C433)</f>
+        <v>4350.85107421875</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>326</v>
+      </c>
+      <c r="B427">
+        <v>4117</v>
+      </c>
+      <c r="C427">
+        <v>4314.66748046875</v>
+      </c>
+      <c r="D427">
+        <v>22.31</v>
+      </c>
+      <c r="E427" s="3">
+        <v>45607.677858796298</v>
+      </c>
+      <c r="F427">
+        <f>MIN(C425:C433)</f>
+        <v>4164.271484375</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>327</v>
+      </c>
+      <c r="B428">
+        <v>4249</v>
+      </c>
+      <c r="C428">
+        <v>4192.94287109375</v>
+      </c>
+      <c r="D428">
+        <v>22.37</v>
+      </c>
+      <c r="E428" s="3">
+        <v>45607.684895833336</v>
+      </c>
+      <c r="F428">
+        <f>_xlfn.STDEV.P(C425:C433)</f>
+        <v>62.012519353401117</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>328</v>
+      </c>
+      <c r="B429">
+        <v>4298</v>
+      </c>
+      <c r="C429">
+        <v>4234.009765625</v>
+      </c>
+      <c r="D429">
+        <v>22.25</v>
+      </c>
+      <c r="E429" s="3">
+        <v>45607.69195601852</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>329</v>
+      </c>
+      <c r="B430">
+        <v>4221</v>
+      </c>
+      <c r="C430">
+        <v>4319.86328125</v>
+      </c>
+      <c r="D430">
+        <v>22.43</v>
+      </c>
+      <c r="E430" s="3">
+        <v>45607.699004629627</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>330</v>
+      </c>
+      <c r="B431">
+        <v>4226</v>
+      </c>
+      <c r="C431">
+        <v>4262.916015625</v>
+      </c>
+      <c r="D431">
+        <v>22.5</v>
+      </c>
+      <c r="E431" s="3">
+        <v>45607.706064814818</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>331</v>
+      </c>
+      <c r="B432">
+        <v>4264</v>
+      </c>
+      <c r="C432">
+        <v>4238.97509765625</v>
+      </c>
+      <c r="D432">
+        <v>22.68</v>
+      </c>
+      <c r="E432" s="3">
+        <v>45607.713125000002</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>332</v>
+      </c>
+      <c r="B433">
+        <v>4250</v>
+      </c>
+      <c r="C433">
+        <v>4350.85107421875</v>
+      </c>
+      <c r="D433">
+        <v>22.68</v>
+      </c>
+      <c r="E433" s="3">
+        <v>45607.720173611109</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>333</v>
+      </c>
+      <c r="B434">
+        <v>4002</v>
+      </c>
+      <c r="C434">
+        <v>3966.744140625</v>
+      </c>
+      <c r="D434">
+        <v>22.5</v>
+      </c>
+      <c r="E434" s="3">
+        <v>45607.74895833333</v>
+      </c>
+      <c r="F434">
+        <f>AVERAGE(C434:C442)</f>
+        <v>4140.6052788628467</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>334</v>
+      </c>
+      <c r="B435">
+        <v>3912</v>
+      </c>
+      <c r="C435">
+        <v>3878.54272460937</v>
+      </c>
+      <c r="D435">
+        <v>22.31</v>
+      </c>
+      <c r="E435" s="3">
+        <v>45607.756006944444</v>
+      </c>
+      <c r="F435">
+        <f>MAX(C434:C442)</f>
+        <v>4289.55615234375</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>335</v>
+      </c>
+      <c r="B436">
+        <v>4071</v>
+      </c>
+      <c r="C436">
+        <v>4113.62158203125</v>
+      </c>
+      <c r="D436">
+        <v>22.25</v>
+      </c>
+      <c r="E436" s="3">
+        <v>45607.763067129628</v>
+      </c>
+      <c r="F436">
+        <f>MIN(C434:C442)</f>
+        <v>3878.54272460937</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>336</v>
+      </c>
+      <c r="B437">
+        <v>4138</v>
+      </c>
+      <c r="C437">
+        <v>4139.42333984375</v>
+      </c>
+      <c r="D437">
+        <v>22.25</v>
+      </c>
+      <c r="E437" s="3">
+        <v>45607.770115740743</v>
+      </c>
+      <c r="F437">
+        <f>_xlfn.STDEV.P(C434:C442)</f>
+        <v>129.24890175685249</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>337</v>
+      </c>
+      <c r="B438">
+        <v>4126</v>
+      </c>
+      <c r="C438">
+        <v>4180.1572265625</v>
+      </c>
+      <c r="D438">
+        <v>22.25</v>
+      </c>
+      <c r="E438" s="3">
+        <v>45607.777175925927</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>338</v>
+      </c>
+      <c r="B439">
+        <v>4171</v>
+      </c>
+      <c r="C439">
+        <v>4289.55615234375</v>
+      </c>
+      <c r="D439">
+        <v>22.25</v>
+      </c>
+      <c r="E439" s="3">
+        <v>45607.784259259257</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>339</v>
+      </c>
+      <c r="B440">
+        <v>4201</v>
+      </c>
+      <c r="C440">
+        <v>4199.421875</v>
+      </c>
+      <c r="D440">
+        <v>22.25</v>
+      </c>
+      <c r="E440" s="3">
+        <v>45607.791331018518</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>340</v>
+      </c>
+      <c r="B441">
+        <v>4216</v>
+      </c>
+      <c r="C441">
+        <v>4251.08837890625</v>
+      </c>
+      <c r="D441">
+        <v>22.25</v>
+      </c>
+      <c r="E441" s="3">
+        <v>45607.798402777778</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>341</v>
+      </c>
+      <c r="B442">
+        <v>4214</v>
+      </c>
+      <c r="C442">
+        <v>4246.89208984375</v>
+      </c>
+      <c r="D442">
+        <v>22.25</v>
+      </c>
+      <c r="E442" s="3">
+        <v>45607.805497685185</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>342</v>
+      </c>
+      <c r="B443">
+        <v>4161</v>
+      </c>
+      <c r="C443">
+        <v>4220.10986328125</v>
+      </c>
+      <c r="D443">
+        <v>22.75</v>
+      </c>
+      <c r="E443" s="3">
+        <v>45608.482141203705</v>
+      </c>
+      <c r="F443">
+        <f>AVERAGE(C443:C451)</f>
+        <v>4233.8952365451387</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>343</v>
+      </c>
+      <c r="B444">
+        <v>4172</v>
+      </c>
+      <c r="C444">
+        <v>4224.96875</v>
+      </c>
+      <c r="D444">
+        <v>22.68</v>
+      </c>
+      <c r="E444" s="3">
+        <v>45608.489212962966</v>
+      </c>
+      <c r="F444">
+        <f>MAX(C443:C451)</f>
+        <v>4264.099609375</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>344</v>
+      </c>
+      <c r="B445">
+        <v>4229</v>
+      </c>
+      <c r="C445">
+        <v>4192.9375</v>
+      </c>
+      <c r="D445">
+        <v>22.68</v>
+      </c>
+      <c r="E445" s="3">
+        <v>45608.49628472222</v>
+      </c>
+      <c r="F445">
+        <f>MIN(C443:C451)</f>
+        <v>4192.9375</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>345</v>
+      </c>
+      <c r="B446">
+        <v>4218</v>
+      </c>
+      <c r="C446">
+        <v>4221.22705078125</v>
+      </c>
+      <c r="D446">
+        <v>22.68</v>
+      </c>
+      <c r="E446" s="3">
+        <v>45608.503368055557</v>
+      </c>
+      <c r="F446">
+        <f>_xlfn.STDEV.P(C443:C451)</f>
+        <v>21.01773840822235</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>346</v>
+      </c>
+      <c r="B447">
+        <v>4170</v>
+      </c>
+      <c r="C447">
+        <v>4259.7041015625</v>
+      </c>
+      <c r="D447">
+        <v>23.06</v>
+      </c>
+      <c r="E447" s="3">
+        <v>45608.510462962964</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>347</v>
+      </c>
+      <c r="B448">
+        <v>4139</v>
+      </c>
+      <c r="C448">
+        <v>4230.60791015625</v>
+      </c>
+      <c r="D448">
+        <v>23.06</v>
+      </c>
+      <c r="E448" s="3">
+        <v>45608.517523148148</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>348</v>
+      </c>
+      <c r="B449">
+        <v>4216</v>
+      </c>
+      <c r="C449">
+        <v>4264.099609375</v>
+      </c>
+      <c r="D449">
+        <v>23.06</v>
+      </c>
+      <c r="E449" s="3">
+        <v>45608.524618055555</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>349</v>
+      </c>
+      <c r="B450">
+        <v>4170</v>
+      </c>
+      <c r="C450">
+        <v>4245.67138671875</v>
+      </c>
+      <c r="D450">
+        <v>22.75</v>
+      </c>
+      <c r="E450" s="3">
+        <v>45608.531689814816</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>350</v>
+      </c>
+      <c r="B451">
+        <v>4250</v>
+      </c>
+      <c r="C451">
+        <v>4245.73095703125</v>
+      </c>
+      <c r="D451">
+        <v>22.68</v>
+      </c>
+      <c r="E451" s="3">
+        <v>45608.538831018515</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>351</v>
+      </c>
+      <c r="B452">
+        <v>4091</v>
+      </c>
+      <c r="C452">
+        <v>4200.2080078125</v>
+      </c>
+      <c r="D452">
+        <v>22.68</v>
+      </c>
+      <c r="E452" s="3">
+        <v>45608.705983796295</v>
+      </c>
+      <c r="F452">
+        <f>AVERAGE(C452:C460)</f>
+        <v>4138.553955078125</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>352</v>
+      </c>
+      <c r="B453">
+        <v>4041</v>
+      </c>
+      <c r="C453">
+        <v>4085.52099609375</v>
+      </c>
+      <c r="D453">
+        <v>22.75</v>
+      </c>
+      <c r="E453" s="3">
+        <v>45608.713217592594</v>
+      </c>
+      <c r="F453">
+        <f>MAX(C452:C460)</f>
+        <v>4200.2080078125</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>353</v>
+      </c>
+      <c r="B454">
+        <v>4103</v>
+      </c>
+      <c r="C454">
+        <v>4133.40771484375</v>
+      </c>
+      <c r="D454">
+        <v>22.68</v>
+      </c>
+      <c r="E454" s="3">
+        <v>45608.720289351855</v>
+      </c>
+      <c r="F454">
+        <f>MIN(C452:C460)</f>
+        <v>4080.38500976562</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>354</v>
+      </c>
+      <c r="B455">
+        <v>4182</v>
+      </c>
+      <c r="C455">
+        <v>4130.7314453125</v>
+      </c>
+      <c r="D455">
+        <v>22.68</v>
+      </c>
+      <c r="E455" s="3">
+        <v>45608.727337962962</v>
+      </c>
+      <c r="F455">
+        <f>_xlfn.STDEV.P(C452:C460)</f>
+        <v>36.727240473886049</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>355</v>
+      </c>
+      <c r="B456">
+        <v>4136</v>
+      </c>
+      <c r="C456">
+        <v>4136.39404296875</v>
+      </c>
+      <c r="D456">
+        <v>22.68</v>
+      </c>
+      <c r="E456" s="3">
+        <v>45608.734386574077</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>356</v>
+      </c>
+      <c r="B457">
+        <v>4166</v>
+      </c>
+      <c r="C457">
+        <v>4170.38916015625</v>
+      </c>
+      <c r="D457">
+        <v>22.56</v>
+      </c>
+      <c r="E457" s="3">
+        <v>45608.741481481484</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>357</v>
+      </c>
+      <c r="B458">
+        <v>4084</v>
+      </c>
+      <c r="C458">
+        <v>4080.38500976562</v>
+      </c>
+      <c r="D458">
+        <v>22.68</v>
+      </c>
+      <c r="E458" s="3">
+        <v>45608.748530092591</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>358</v>
+      </c>
+      <c r="B459">
+        <v>4179</v>
+      </c>
+      <c r="C459">
+        <v>4170.74755859375</v>
+      </c>
+      <c r="D459">
+        <v>22.68</v>
+      </c>
+      <c r="E459" s="3">
+        <v>45608.755590277775</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>359</v>
+      </c>
+      <c r="B460">
+        <v>4142</v>
+      </c>
+      <c r="C460">
+        <v>4139.20166015625</v>
+      </c>
+      <c r="D460">
+        <v>22.68</v>
+      </c>
+      <c r="E460" s="3">
+        <v>45608.762708333335</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>360</v>
+      </c>
+      <c r="B461">
+        <v>5841</v>
+      </c>
+      <c r="C461">
+        <v>5945.2016599999997</v>
+      </c>
+      <c r="D461">
+        <v>22.68</v>
+      </c>
+      <c r="E461" s="3">
+        <v>45610.68472222222</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>361</v>
+      </c>
+      <c r="B462">
+        <v>5498</v>
+      </c>
+      <c r="C462">
+        <v>5661.1455079999996</v>
+      </c>
+      <c r="D462">
+        <v>22.93</v>
+      </c>
+      <c r="E462" s="3">
+        <v>45610.693055555559</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>362</v>
+      </c>
+      <c r="B463">
+        <v>4222</v>
+      </c>
+      <c r="C463">
+        <v>4286.9838870000003</v>
+      </c>
+      <c r="D463">
+        <v>22.93</v>
+      </c>
+      <c r="E463" s="3">
+        <v>45610.701388888891</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>363</v>
+      </c>
+      <c r="B464">
+        <v>3913</v>
+      </c>
+      <c r="C464">
+        <v>4007.5493160000001</v>
+      </c>
+      <c r="D464">
+        <v>22.93</v>
+      </c>
+      <c r="E464" s="3">
+        <v>45610.709722222222</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>364</v>
+      </c>
+      <c r="B465">
+        <v>6091</v>
+      </c>
+      <c r="C465">
+        <v>6101.4599609999996</v>
+      </c>
+      <c r="D465">
+        <v>23</v>
+      </c>
+      <c r="E465" s="3">
+        <v>45610.718055555553</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>365</v>
+      </c>
+      <c r="B466">
+        <v>3961</v>
+      </c>
+      <c r="C466">
+        <v>4037.108154</v>
+      </c>
+      <c r="D466">
+        <v>22.93</v>
+      </c>
+      <c r="E466" s="3">
+        <v>45610.726388888892</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>366</v>
+      </c>
+      <c r="B467">
+        <v>5777</v>
+      </c>
+      <c r="C467">
+        <v>5918.6132809999999</v>
+      </c>
+      <c r="D467">
+        <v>23.06</v>
+      </c>
+      <c r="E467" s="3">
+        <v>45610.734027777777</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>367</v>
+      </c>
+      <c r="B468">
+        <v>4040</v>
+      </c>
+      <c r="C468">
+        <v>4099.7646480000003</v>
+      </c>
+      <c r="D468">
+        <v>22.93</v>
+      </c>
+      <c r="E468" s="3">
+        <v>45610.742361111108</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>368</v>
+      </c>
+      <c r="B469">
+        <v>4313</v>
+      </c>
+      <c r="C469">
+        <v>4367.8427730000003</v>
+      </c>
+      <c r="D469">
+        <v>23</v>
+      </c>
+      <c r="E469" s="3">
+        <v>45610.750694444447</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>360</v>
+      </c>
+      <c r="B470">
+        <v>4599</v>
+      </c>
+      <c r="C470">
+        <v>4678.283203125</v>
+      </c>
+      <c r="D470">
+        <v>22.68</v>
+      </c>
+      <c r="E470" s="3">
+        <v>45611.489039351851</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>361</v>
+      </c>
+      <c r="B471">
+        <v>6024</v>
+      </c>
+      <c r="C471">
+        <v>6261.82763671875</v>
+      </c>
+      <c r="D471">
+        <v>22.93</v>
+      </c>
+      <c r="E471" s="3">
+        <v>45611.49728009259</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>362</v>
+      </c>
+      <c r="B472">
+        <v>6865</v>
+      </c>
+      <c r="C472">
+        <v>6910.255859375</v>
+      </c>
+      <c r="D472">
+        <v>22.93</v>
+      </c>
+      <c r="E472" s="3">
+        <v>45611.506643518522</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>363</v>
+      </c>
+      <c r="B473">
+        <v>6852</v>
+      </c>
+      <c r="C473">
+        <v>6947.03857421875</v>
+      </c>
+      <c r="D473">
+        <v>22.93</v>
+      </c>
+      <c r="E473" s="3">
+        <v>45611.5153125</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>364</v>
+      </c>
+      <c r="B474">
+        <v>6845</v>
+      </c>
+      <c r="C474">
+        <v>6971.8173828125</v>
+      </c>
+      <c r="D474">
+        <v>22.68</v>
+      </c>
+      <c r="E474" s="3">
+        <v>45611.523553240739</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>365</v>
+      </c>
+      <c r="B475">
+        <v>6910</v>
+      </c>
+      <c r="C475">
+        <v>6998.84912109375</v>
+      </c>
+      <c r="D475">
+        <v>22.68</v>
+      </c>
+      <c r="E475" s="3">
+        <v>45611.532870370371</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>366</v>
+      </c>
+      <c r="B476">
+        <v>6908</v>
+      </c>
+      <c r="C476">
+        <v>7033.84521484375</v>
+      </c>
+      <c r="D476">
+        <v>22.81</v>
+      </c>
+      <c r="E476" s="3">
+        <v>45611.54215277778</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>367</v>
+      </c>
+      <c r="B477">
+        <v>6944</v>
+      </c>
+      <c r="C477">
+        <v>7030.32373046875</v>
+      </c>
+      <c r="D477">
+        <v>23</v>
+      </c>
+      <c r="E477" s="3">
+        <v>45611.551469907405</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>368</v>
+      </c>
+      <c r="B478">
+        <v>6924</v>
+      </c>
+      <c r="C478">
+        <v>7051.623046875</v>
+      </c>
+      <c r="D478">
+        <v>22.93</v>
+      </c>
+      <c r="E478" s="3">
+        <v>45611.560185185182</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>360</v>
+      </c>
+      <c r="B479">
+        <v>4268</v>
+      </c>
+      <c r="C479">
+        <v>4412.5234375</v>
+      </c>
+      <c r="D479">
+        <v>22.93</v>
+      </c>
+      <c r="E479" s="3">
+        <v>45611.738703703704</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>361</v>
+      </c>
+      <c r="B480">
+        <v>4211</v>
+      </c>
+      <c r="C480">
+        <v>4217.70166015625</v>
+      </c>
+      <c r="D480">
+        <v>22.93</v>
+      </c>
+      <c r="E480" s="3">
+        <v>45611.747129629628</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>362</v>
+      </c>
+      <c r="B481">
+        <v>6855</v>
+      </c>
+      <c r="C481">
+        <v>6924.72021484375</v>
+      </c>
+      <c r="D481">
+        <v>22.81</v>
+      </c>
+      <c r="E481" s="3">
+        <v>45611.755578703705</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>363</v>
+      </c>
+      <c r="B482">
+        <v>6883</v>
+      </c>
+      <c r="C482">
+        <v>7032.89599609375</v>
+      </c>
+      <c r="D482">
+        <v>22.93</v>
+      </c>
+      <c r="E482" s="3">
+        <v>45611.764027777775</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>364</v>
+      </c>
+      <c r="B483">
+        <v>7013</v>
+      </c>
+      <c r="C483">
+        <v>6840.54931640625</v>
+      </c>
+      <c r="D483">
+        <v>22.87</v>
+      </c>
+      <c r="E483" s="3">
+        <v>45611.772465277776</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>365</v>
+      </c>
+      <c r="B484">
+        <v>6807</v>
+      </c>
+      <c r="C484">
+        <v>7070.46484375</v>
+      </c>
+      <c r="D484">
+        <v>22.87</v>
+      </c>
+      <c r="E484" s="3">
+        <v>45611.780891203707</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>366</v>
+      </c>
+      <c r="B485">
+        <v>6963</v>
+      </c>
+      <c r="C485">
+        <v>7036.12353515625</v>
+      </c>
+      <c r="D485">
+        <v>22.87</v>
+      </c>
+      <c r="E485" s="3">
+        <v>45611.789351851854</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>367</v>
+      </c>
+      <c r="B486">
+        <v>6932</v>
+      </c>
+      <c r="C486">
+        <v>7053.24560546875</v>
+      </c>
+      <c r="D486">
+        <v>22.68</v>
+      </c>
+      <c r="E486" s="3">
+        <v>45611.797800925924</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>368</v>
+      </c>
+      <c r="B487">
+        <v>6960</v>
+      </c>
+      <c r="C487">
+        <v>7038.70947265625</v>
+      </c>
+      <c r="D487">
+        <v>22.81</v>
+      </c>
+      <c r="E487" s="3">
+        <v>45611.806273148148</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>360</v>
+      </c>
+      <c r="B488">
+        <v>4115</v>
+      </c>
+      <c r="C488">
+        <v>4203.869140625</v>
+      </c>
+      <c r="D488">
+        <v>22.75</v>
+      </c>
+      <c r="E488" s="3">
+        <v>45614.442175925928</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>361</v>
+      </c>
+      <c r="B489">
+        <v>6709</v>
+      </c>
+      <c r="C489">
+        <v>6847.6220703125</v>
+      </c>
+      <c r="D489">
+        <v>22.68</v>
+      </c>
+      <c r="E489" s="3">
+        <v>45614.451828703706</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>362</v>
+      </c>
+      <c r="B490">
+        <v>6225</v>
+      </c>
+      <c r="C490">
+        <v>6301.00048828125</v>
+      </c>
+      <c r="D490">
+        <v>22.68</v>
+      </c>
+      <c r="E490" s="3">
+        <v>45614.461446759262</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>363</v>
+      </c>
+      <c r="B491">
+        <v>4271</v>
+      </c>
+      <c r="C491">
+        <v>4375.1484375</v>
+      </c>
+      <c r="D491">
+        <v>22.68</v>
+      </c>
+      <c r="E491" s="3">
+        <v>45614.471041666664</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>364</v>
+      </c>
+      <c r="B492">
+        <v>6712</v>
+      </c>
+      <c r="C492">
+        <v>6811.57177734375</v>
+      </c>
+      <c r="D492">
+        <v>22.68</v>
+      </c>
+      <c r="E492" s="3">
+        <v>45614.48065972222</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>365</v>
+      </c>
+      <c r="B493">
+        <v>6716</v>
+      </c>
+      <c r="C493">
+        <v>6826.96240234375</v>
+      </c>
+      <c r="D493">
+        <v>22.68</v>
+      </c>
+      <c r="E493" s="3">
+        <v>45614.489155092589</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>366</v>
+      </c>
+      <c r="B494">
+        <v>4412</v>
+      </c>
+      <c r="C494">
+        <v>4414.9853515625</v>
+      </c>
+      <c r="D494">
+        <v>22.68</v>
+      </c>
+      <c r="E494" s="3">
+        <v>45614.498784722222</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>367</v>
+      </c>
+      <c r="B495">
+        <v>6538</v>
+      </c>
+      <c r="C495">
+        <v>6594.77197265625</v>
+      </c>
+      <c r="D495">
+        <v>22.68</v>
+      </c>
+      <c r="E495" s="3">
+        <v>45614.508425925924</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>368</v>
+      </c>
+      <c r="B496">
+        <v>6694</v>
+      </c>
+      <c r="C496">
+        <v>6768.91357421875</v>
+      </c>
+      <c r="D496">
+        <v>22.68</v>
+      </c>
+      <c r="E496" s="3">
+        <v>45614.516956018517</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>369</v>
+      </c>
+      <c r="B497">
+        <v>5947</v>
+      </c>
+      <c r="C497">
+        <v>6054.68359375</v>
+      </c>
+      <c r="D497">
+        <v>22.5</v>
+      </c>
+      <c r="E497" s="3">
+        <v>45614.636261574073</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>370</v>
+      </c>
+      <c r="B498">
+        <v>7192</v>
+      </c>
+      <c r="C498">
+        <v>6588.25634765625</v>
+      </c>
+      <c r="D498">
+        <v>22.68</v>
+      </c>
+      <c r="E498" s="3">
+        <v>45614.645868055559</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>371</v>
+      </c>
+      <c r="B499">
+        <v>4122</v>
+      </c>
+      <c r="C499">
+        <v>4132.84521484375</v>
+      </c>
+      <c r="D499">
+        <v>22.68</v>
+      </c>
+      <c r="E499" s="3">
+        <v>45614.655416666668</v>
       </c>
     </row>
   </sheetData>
